--- a/intervention/ict_btec_auto.xlsx
+++ b/intervention/ict_btec_auto.xlsx
@@ -462,11 +462,11 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>G931321110003</t>
+          <t>M931321115023</t>
         </is>
       </c>
     </row>
@@ -502,11 +502,11 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>M931321115023</t>
+          <t>G931321110003</t>
         </is>
       </c>
     </row>
